--- a/src/analysis_examples/circadb/results_jtk/cosinor_10446965_rasgrp3_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10446965_rasgrp3_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.314292781260331, 0.4086619111258025]</t>
+          <t>[0.3144185901385439, 0.4085361022475896]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.346212196220222e-13</v>
+        <v>3.177458296477198e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>3.346212196220222e-13</v>
+        <v>3.177458296477198e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.25789495639231</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.46741714200505413, 0.521917781607202]</t>
+          <t>[0.46740933878405044, 0.5219255848282057]</t>
         </is>
       </c>
       <c r="U2" t="n">

--- a/src/analysis_examples/circadb/results_jtk/cosinor_10446965_rasgrp3_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10446965_rasgrp3_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3144185901385439, 0.4085361022475896]</t>
+          <t>[0.31262059878449433, 0.4103340936016392]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.177458296477198e-13</v>
+        <v>6.581402089977928e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>3.177458296477198e-13</v>
+        <v>6.581402089977928e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.25789495639231</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.46740933878405044, 0.5219255848282057]</t>
+          <t>[0.4674362079922014, 0.5218987156200547]</t>
         </is>
       </c>
       <c r="U2" t="n">
